--- a/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>-19,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>12,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>18,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>202,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-29,07%</t>
+          <t>157,02%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 16,61</t>
+          <t>5,14; 39,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 14,19</t>
+          <t>-43,33; -5,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 5,44</t>
+          <t>-11,56; 37,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 3,01</t>
+          <t>-17,34; 50,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 113,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 75,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 31,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-60,93; 24,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-18,43%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>-29,07%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 5,8</t>
+          <t>-0,29; 16,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 17,75</t>
+          <t>-4,32; 14,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,74</t>
+          <t>-12,32; 5,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 6,29</t>
+          <t>-12,72; 3,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 50,35</t>
+          <t>-2,1; 113,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 300,31</t>
+          <t>-15,97; 75,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 83,76</t>
+          <t>-41,2; 31,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 68,78</t>
+          <t>-60,93; 24,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,65</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,48</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-17,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>202,26%</t>
+          <t>-32,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>157,02%</t>
+          <t>44,42%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 39,75</t>
+          <t>-3,92; 15,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -5,41</t>
+          <t>-13,8; 7,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 37,69</t>
+          <t>-18,92; 2,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 50,56</t>
+          <t>-2,84; 17,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,48; 133,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,24; 48,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,92; 15,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,05; 136,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>-18,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>-7,85%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 15,99</t>
+          <t>-12,13; 5,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 7,7</t>
+          <t>1,39; 17,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 2,4</t>
+          <t>-7,34; 6,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 17,7</t>
+          <t>-9,81; 6,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 133,11</t>
+          <t>-55,37; 50,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 48,73</t>
+          <t>4,7; 300,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-61,92; 15,1</t>
+          <t>-51,62; 83,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 136,49</t>
+          <t>-53,54; 68,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 39,75</t>
+          <t>4,85; 40,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -5,41</t>
+          <t>-48,2; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 37,69</t>
+          <t>-7,66; 36,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 11,53</t>
+          <t>-11,67; 11,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 4,91</t>
+          <t>-18,43; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 16,11</t>
+          <t>-8,29; 16,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 13,95</t>
+          <t>-7,35; 12,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 69,08</t>
+          <t>-44,63; 69,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,8; 26,21</t>
+          <t>-60,32; 30,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 141,49</t>
+          <t>-36,85; 145,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 206,64</t>
+          <t>-38,58; 174,48</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 16,61</t>
+          <t>-1,18; 16,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 14,19</t>
+          <t>-4,65; 13,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 5,44</t>
+          <t>-11,69; 6,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 3,01</t>
+          <t>-12,34; 2,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 113,53</t>
+          <t>-4,96; 123,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 75,09</t>
+          <t>-17,83; 67,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 31,17</t>
+          <t>-41,43; 38,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,93; 24,21</t>
+          <t>-57,32; 19,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 15,99</t>
+          <t>-4,29; 16,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 7,7</t>
+          <t>-14,35; 6,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 2,4</t>
+          <t>-18,04; 2,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 17,7</t>
+          <t>-2,63; 18,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 133,11</t>
+          <t>-23,66; 139,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 48,73</t>
+          <t>-54,23; 38,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,92; 15,1</t>
+          <t>-60,47; 17,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 136,49</t>
+          <t>-12,76; 143,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 5,8</t>
+          <t>-12,1; 5,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 17,75</t>
+          <t>0,78; 18,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,74</t>
+          <t>-8,4; 6,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 6,29</t>
+          <t>-9,43; 7,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 50,35</t>
+          <t>-55,63; 40,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 300,31</t>
+          <t>-0,06; 301,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 83,76</t>
+          <t>-52,56; 86,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 68,78</t>
+          <t>-52,28; 84,66</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 7,87</t>
+          <t>-1,18; 8,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,02</t>
+          <t>-3,48; 6,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 3,43</t>
+          <t>-5,44; 3,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,5</t>
+          <t>-3,59; 5,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 51,36</t>
+          <t>-6,5; 56,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 36,2</t>
+          <t>-16,13; 35,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 22,16</t>
+          <t>-27,63; 24,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 40,42</t>
+          <t>-19,72; 41,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 40,62</t>
+          <t>4,77; 39,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-48,2; 0,0</t>
+          <t>-44,56; -5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 36,78</t>
+          <t>-7,83; 37,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 50,56</t>
+          <t>-15,85; 49,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 11,22</t>
+          <t>-12,86; 10,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 5,46</t>
+          <t>-18,46; 5,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 16,91</t>
+          <t>-6,58; 17,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 12,82</t>
+          <t>-7,11; 13,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 69,21</t>
+          <t>-47,34; 64,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 30,41</t>
+          <t>-58,56; 32,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 145,49</t>
+          <t>-30,66; 160,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 174,48</t>
+          <t>-39,2; 206,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 16,73</t>
+          <t>-1,48; 16,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 13,73</t>
+          <t>-4,79; 13,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 6,56</t>
+          <t>-11,57; 6,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 2,49</t>
+          <t>-12,44; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 123,0</t>
+          <t>-6,25; 113,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 67,84</t>
+          <t>-16,86; 75,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 38,63</t>
+          <t>-42,68; 34,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 19,19</t>
+          <t>-60,47; 24,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 16,49</t>
+          <t>-4,08; 15,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 6,04</t>
+          <t>-12,53; 7,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 2,91</t>
+          <t>-18,52; 2,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 18,49</t>
+          <t>-2,56; 18,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 139,83</t>
+          <t>-23,37; 134,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,23; 38,58</t>
+          <t>-48,55; 44,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 17,97</t>
+          <t>-62,19; 16,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 143,78</t>
+          <t>-11,89; 145,1</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 5,18</t>
+          <t>-12,31; 5,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 18,54</t>
+          <t>0,93; 17,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 6,88</t>
+          <t>-7,78; 6,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 7,66</t>
+          <t>-9,98; 6,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 40,5</t>
+          <t>-56,01; 53,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 301,63</t>
+          <t>-1,81; 311,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-52,56; 86,28</t>
+          <t>-52,52; 89,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,28; 84,66</t>
+          <t>-53,77; 72,56</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 8,36</t>
+          <t>-1,53; 8,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,05</t>
+          <t>-3,63; 6,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 3,82</t>
+          <t>-6,18; 3,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,66</t>
+          <t>-3,66; 6,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 56,63</t>
+          <t>-8,36; 55,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 35,37</t>
+          <t>-16,46; 35,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 24,0</t>
+          <t>-28,94; 21,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 41,26</t>
+          <t>-19,29; 44,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-19,65</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,48</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-36,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>202,26%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>157,02%</t>
+          <t>48,31%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 39,86</t>
+          <t>-7,85; 12,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,56; -5,22</t>
+          <t>-18,98; 2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 37,65</t>
+          <t>-2,53; 18,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 49,24</t>
+          <t>-4,6; 15,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,37; 92,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,03; 12,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; 177,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,21; 230,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,49%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>-28,99%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 10,14</t>
+          <t>-0,29; 16,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 5,33</t>
+          <t>-4,32; 14,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 17,82</t>
+          <t>-12,32; 5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 13,76</t>
+          <t>-13,03; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 64,13</t>
+          <t>-2,1; 113,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,56; 32,52</t>
+          <t>-15,97; 75,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 160,73</t>
+          <t>-41,2; 31,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 206,05</t>
+          <t>-60,13; 22,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>-17,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>-32,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,07%</t>
+          <t>47,0%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 16,56</t>
+          <t>-3,92; 15,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 13,84</t>
+          <t>-13,8; 7,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 6,38</t>
+          <t>-18,92; 2,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 3,04</t>
+          <t>-2,57; 19,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 113,15</t>
+          <t>-20,48; 133,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 75,72</t>
+          <t>-53,24; 48,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 34,64</t>
+          <t>-61,92; 15,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 24,51</t>
+          <t>-13,86; 144,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>-18,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>-9,19%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 15,93</t>
+          <t>-12,13; 5,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 7,44</t>
+          <t>1,39; 17,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 2,4</t>
+          <t>-7,34; 6,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 18,12</t>
+          <t>-10,86; 6,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 134,05</t>
+          <t>-55,37; 50,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 44,09</t>
+          <t>4,7; 300,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,19; 16,93</t>
+          <t>-51,62; 83,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 145,1</t>
+          <t>-55,42; 63,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-18,43%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 5,83</t>
+          <t>-1,56; 7,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 17,99</t>
+          <t>-3,68; 6,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 6,6</t>
+          <t>-5,63; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,47</t>
+          <t>-3,29; 6,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,01; 53,6</t>
+          <t>-8,24; 51,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 311,21</t>
+          <t>-16,24; 36,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 89,83</t>
+          <t>-26,95; 22,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,77; 72,56</t>
+          <t>-18,74; 43,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>18,21%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-6,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 8,23</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 6,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 3,42</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 6,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 55,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-16,46; 35,72</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-28,94; 21,65</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-19,29; 44,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
